--- a/Day 20/P1-StartupExpansion-challenge-1.xlsx
+++ b/Day 20/P1-StartupExpansion-challenge-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rithw\Desktop\Data Analytics\Day 20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23712B79-B3D5-45E2-B8C4-40B876A4F04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C0F45-84E9-4A57-9E44-EC287DB6D18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3744" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$151</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="352">
   <si>
     <t>Revenue</t>
   </si>
@@ -1082,6 +1082,9 @@
   </si>
   <si>
     <t>Jurupa Valley</t>
+  </si>
+  <si>
+    <t>Presence</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
@@ -4986,15 +4989,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>195</v>
       </c>
@@ -5010,8 +5018,11 @@
       <c r="E1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5027,8 +5038,12 @@
       <c r="E2">
         <v>8175133</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="str">
+        <f>IFERROR(VLOOKUP(B2,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5044,8 +5059,12 @@
       <c r="E3">
         <v>3792621</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="str">
+        <f>IFERROR(VLOOKUP(B3,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5061,8 +5080,12 @@
       <c r="E4">
         <v>2695598</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="str">
+        <f>IFERROR(VLOOKUP(B4,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5078,8 +5101,12 @@
       <c r="E5">
         <v>2100263</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="str">
+        <f>IFERROR(VLOOKUP(B5,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5095,8 +5122,12 @@
       <c r="E6">
         <v>1526006</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="str">
+        <f>IFERROR(VLOOKUP(B6,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5112,8 +5143,12 @@
       <c r="E7">
         <v>1445632</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="str">
+        <f>IFERROR(VLOOKUP(B7,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5129,8 +5164,12 @@
       <c r="E8">
         <v>1327407</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f>IFERROR(VLOOKUP(B8,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5146,8 +5185,12 @@
       <c r="E9">
         <v>1307402</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f>IFERROR(VLOOKUP(B9,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5163,8 +5206,12 @@
       <c r="E10">
         <v>1197816</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f>IFERROR(VLOOKUP(B10,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5180,8 +5227,12 @@
       <c r="E11">
         <v>945942</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <f>IFERROR(VLOOKUP(B11,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5197,8 +5248,12 @@
       <c r="E12">
         <v>790390</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f>IFERROR(VLOOKUP(B12,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5214,8 +5269,12 @@
       <c r="E13">
         <v>821784</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <f>IFERROR(VLOOKUP(B13,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5231,8 +5290,12 @@
       <c r="E14">
         <v>805235</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <f>IFERROR(VLOOKUP(B14,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5248,8 +5311,12 @@
       <c r="E15">
         <v>820445</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <f>IFERROR(VLOOKUP(B15,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5265,8 +5332,12 @@
       <c r="E16">
         <v>787033</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f>IFERROR(VLOOKUP(B16,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5282,8 +5353,12 @@
       <c r="E17">
         <v>741206</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f>IFERROR(VLOOKUP(B17,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5299,8 +5374,12 @@
       <c r="E18">
         <v>731424</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f>IFERROR(VLOOKUP(B18,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5316,8 +5395,12 @@
       <c r="E19">
         <v>608660</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f>IFERROR(VLOOKUP(B19,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5333,8 +5416,12 @@
       <c r="E20">
         <v>600158</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f>IFERROR(VLOOKUP(B20,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5350,8 +5437,12 @@
       <c r="E21">
         <v>649121</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f>IFERROR(VLOOKUP(B21,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5367,8 +5458,12 @@
       <c r="E22">
         <v>713777</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f>IFERROR(VLOOKUP(B22,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5384,8 +5479,12 @@
       <c r="E23">
         <v>601723</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f>IFERROR(VLOOKUP(B23,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5401,8 +5500,12 @@
       <c r="E24">
         <v>617594</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <f>IFERROR(VLOOKUP(B24,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5418,8 +5521,12 @@
       <c r="E25">
         <v>646889</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
+        <f>IFERROR(VLOOKUP(B25,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5435,8 +5542,12 @@
       <c r="E26">
         <v>601222</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
+        <f>IFERROR(VLOOKUP(B26,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5452,8 +5563,12 @@
       <c r="E27">
         <v>583776</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="str">
+        <f>IFERROR(VLOOKUP(B27,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5469,8 +5584,12 @@
       <c r="E28">
         <v>579999</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="str">
+        <f>IFERROR(VLOOKUP(B28,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5486,8 +5605,12 @@
       <c r="E29">
         <v>583756</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="str">
+        <f>IFERROR(VLOOKUP(B29,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5503,8 +5626,12 @@
       <c r="E30">
         <v>620961</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="str">
+        <f>IFERROR(VLOOKUP(B30,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5520,8 +5647,12 @@
       <c r="E31">
         <v>597337</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="str">
+        <f>IFERROR(VLOOKUP(B31,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5537,8 +5668,12 @@
       <c r="E32">
         <v>594833</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="str">
+        <f>IFERROR(VLOOKUP(B32,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5554,8 +5689,12 @@
       <c r="E33">
         <v>545852</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="str">
+        <f>IFERROR(VLOOKUP(B33,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5571,8 +5710,12 @@
       <c r="E34">
         <v>520116</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="str">
+        <f>IFERROR(VLOOKUP(B34,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5588,8 +5731,12 @@
       <c r="E35">
         <v>494665</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="str">
+        <f>IFERROR(VLOOKUP(B35,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5605,8 +5752,12 @@
       <c r="E36">
         <v>466488</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="str">
+        <f>IFERROR(VLOOKUP(B36,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5622,8 +5773,12 @@
       <c r="E37">
         <v>459787</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="str">
+        <f>IFERROR(VLOOKUP(B37,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5639,8 +5794,12 @@
       <c r="E38">
         <v>462257</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="str">
+        <f>IFERROR(VLOOKUP(B38,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5656,8 +5815,12 @@
       <c r="E39">
         <v>439041</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="str">
+        <f>IFERROR(VLOOKUP(B39,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5673,8 +5836,12 @@
       <c r="E40">
         <v>420003</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="str">
+        <f>IFERROR(VLOOKUP(B40,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5690,8 +5857,12 @@
       <c r="E41">
         <v>416427</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="str">
+        <f>IFERROR(VLOOKUP(B41,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5707,8 +5878,12 @@
       <c r="E42">
         <v>437994</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="str">
+        <f>IFERROR(VLOOKUP(B42,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5724,8 +5899,12 @@
       <c r="E43">
         <v>403892</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="str">
+        <f>IFERROR(VLOOKUP(B43,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5741,8 +5920,12 @@
       <c r="E44">
         <v>408958</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="str">
+        <f>IFERROR(VLOOKUP(B44,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5758,8 +5941,12 @@
       <c r="E45">
         <v>399457</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="str">
+        <f>IFERROR(VLOOKUP(B45,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5775,8 +5962,12 @@
       <c r="E46">
         <v>390724</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="str">
+        <f>IFERROR(VLOOKUP(B46,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5792,8 +5983,12 @@
       <c r="E47">
         <v>382578</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="str">
+        <f>IFERROR(VLOOKUP(B47,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5809,8 +6004,12 @@
       <c r="E48">
         <v>391906</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="str">
+        <f>IFERROR(VLOOKUP(B48,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5826,8 +6025,12 @@
       <c r="E49">
         <v>382368</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="str">
+        <f>IFERROR(VLOOKUP(B49,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5843,8 +6046,12 @@
       <c r="E50">
         <v>343829</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="str">
+        <f>IFERROR(VLOOKUP(B50,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5860,8 +6067,12 @@
       <c r="E51">
         <v>365438</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="str">
+        <f>IFERROR(VLOOKUP(B51,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5877,8 +6088,12 @@
       <c r="E52">
         <v>396815</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="str">
+        <f>IFERROR(VLOOKUP(B52,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5894,8 +6109,12 @@
       <c r="E53">
         <v>347483</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="str">
+        <f>IFERROR(VLOOKUP(B53,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5911,8 +6130,12 @@
       <c r="E54">
         <v>335709</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="str">
+        <f>IFERROR(VLOOKUP(B54,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5928,8 +6151,12 @@
       <c r="E55">
         <v>325078</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="str">
+        <f>IFERROR(VLOOKUP(B55,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5945,8 +6172,12 @@
       <c r="E56">
         <v>337256</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="str">
+        <f>IFERROR(VLOOKUP(B56,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5962,8 +6193,12 @@
       <c r="E57">
         <v>336265</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="str">
+        <f>IFERROR(VLOOKUP(B57,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5979,8 +6214,12 @@
       <c r="E58">
         <v>324528</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="str">
+        <f>IFERROR(VLOOKUP(B58,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5996,8 +6235,12 @@
       <c r="E59">
         <v>305215</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="str">
+        <f>IFERROR(VLOOKUP(B59,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6013,8 +6256,12 @@
       <c r="E60">
         <v>303871</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="str">
+        <f>IFERROR(VLOOKUP(B60,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6030,8 +6277,12 @@
       <c r="E61">
         <v>319294</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="str">
+        <f>IFERROR(VLOOKUP(B61,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6047,8 +6298,12 @@
       <c r="E62">
         <v>295803</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="str">
+        <f>IFERROR(VLOOKUP(B62,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6064,8 +6319,12 @@
       <c r="E63">
         <v>291707</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="str">
+        <f>IFERROR(VLOOKUP(B63,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6081,8 +6340,12 @@
       <c r="E64">
         <v>305704</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="str">
+        <f>IFERROR(VLOOKUP(B64,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6098,8 +6361,12 @@
       <c r="E65">
         <v>285068</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="str">
+        <f>IFERROR(VLOOKUP(B65,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6115,8 +6382,12 @@
       <c r="E66">
         <v>291826</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="str">
+        <f>IFERROR(VLOOKUP(B66,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6132,8 +6403,12 @@
       <c r="E67">
         <v>296943</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="str">
+        <f>IFERROR(VLOOKUP(B67,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6149,8 +6424,12 @@
       <c r="E68">
         <v>257729</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="str">
+        <f>IFERROR(VLOOKUP(B68,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6166,8 +6445,12 @@
       <c r="E69">
         <v>269666</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="str">
+        <f>IFERROR(VLOOKUP(B69,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6183,8 +6466,12 @@
       <c r="E70">
         <v>259841</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="str">
+        <f>IFERROR(VLOOKUP(B70,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6200,8 +6487,12 @@
       <c r="E71">
         <v>277140</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="str">
+        <f>IFERROR(VLOOKUP(B71,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6217,8 +6508,12 @@
       <c r="E72">
         <v>287208</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="str">
+        <f>IFERROR(VLOOKUP(B72,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6234,8 +6529,12 @@
       <c r="E73">
         <v>258379</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="str">
+        <f>IFERROR(VLOOKUP(B73,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6251,8 +6550,12 @@
       <c r="E74">
         <v>238300</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="str">
+        <f>IFERROR(VLOOKUP(B74,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6268,8 +6571,12 @@
       <c r="E75">
         <v>243916</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="str">
+        <f>IFERROR(VLOOKUP(B75,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6285,8 +6592,12 @@
       <c r="E76">
         <v>247597</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="str">
+        <f>IFERROR(VLOOKUP(B76,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6302,8 +6613,12 @@
       <c r="E77">
         <v>236123</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="str">
+        <f>IFERROR(VLOOKUP(B77,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6319,8 +6634,12 @@
       <c r="E78">
         <v>253691</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="str">
+        <f>IFERROR(VLOOKUP(B78,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6336,8 +6655,12 @@
       <c r="E79">
         <v>261310</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="str">
+        <f>IFERROR(VLOOKUP(B79,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6353,8 +6676,12 @@
       <c r="E80">
         <v>228330</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="str">
+        <f>IFERROR(VLOOKUP(B80,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6370,8 +6697,12 @@
       <c r="E81">
         <v>244769</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="str">
+        <f>IFERROR(VLOOKUP(B81,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6387,8 +6718,12 @@
       <c r="E82">
         <v>212375</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" t="str">
+        <f>IFERROR(VLOOKUP(B82,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6404,8 +6739,12 @@
       <c r="E83">
         <v>236091</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="str">
+        <f>IFERROR(VLOOKUP(B83,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6421,8 +6760,12 @@
       <c r="E84">
         <v>229573</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" t="str">
+        <f>IFERROR(VLOOKUP(B84,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6438,8 +6781,12 @@
       <c r="E85">
         <v>233209</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="str">
+        <f>IFERROR(VLOOKUP(B85,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6455,8 +6802,12 @@
       <c r="E86">
         <v>208453</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="str">
+        <f>IFERROR(VLOOKUP(B86,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6472,8 +6823,12 @@
       <c r="E87">
         <v>242803</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" t="str">
+        <f>IFERROR(VLOOKUP(B87,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6489,8 +6844,12 @@
       <c r="E88">
         <v>225221</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" t="str">
+        <f>IFERROR(VLOOKUP(B88,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6506,8 +6865,12 @@
       <c r="E89">
         <v>229617</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" t="str">
+        <f>IFERROR(VLOOKUP(B89,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6523,8 +6886,12 @@
       <c r="E90">
         <v>226721</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" t="str">
+        <f>IFERROR(VLOOKUP(B90,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6540,8 +6907,12 @@
       <c r="E91">
         <v>224669</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" t="str">
+        <f>IFERROR(VLOOKUP(B91,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6557,8 +6928,12 @@
       <c r="E92">
         <v>226876</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="str">
+        <f>IFERROR(VLOOKUP(B92,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6574,8 +6949,12 @@
       <c r="E93">
         <v>217385</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="str">
+        <f>IFERROR(VLOOKUP(B93,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6591,8 +6970,12 @@
       <c r="E94">
         <v>216290</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="str">
+        <f>IFERROR(VLOOKUP(B94,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6608,8 +6991,12 @@
       <c r="E95">
         <v>222209</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="str">
+        <f>IFERROR(VLOOKUP(B95,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6625,8 +7012,12 @@
       <c r="E96">
         <v>216961</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="str">
+        <f>IFERROR(VLOOKUP(B96,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6642,8 +7033,12 @@
       <c r="E97">
         <v>214089</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" t="str">
+        <f>IFERROR(VLOOKUP(B97,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6659,8 +7054,12 @@
       <c r="E98">
         <v>229493</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" t="str">
+        <f>IFERROR(VLOOKUP(B98,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6676,8 +7075,12 @@
       <c r="E99">
         <v>204214</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" t="str">
+        <f>IFERROR(VLOOKUP(B99,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6693,8 +7096,12 @@
       <c r="E100">
         <v>205671</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="str">
+        <f>IFERROR(VLOOKUP(B100,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6710,8 +7117,12 @@
       <c r="E101">
         <v>209924</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" t="str">
+        <f>IFERROR(VLOOKUP(B101,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6727,8 +7138,12 @@
       <c r="E102">
         <v>208916</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" t="str">
+        <f>IFERROR(VLOOKUP(B102,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6744,8 +7159,12 @@
       <c r="E103">
         <v>212237</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" t="str">
+        <f>IFERROR(VLOOKUP(B103,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6761,8 +7180,12 @@
       <c r="E104">
         <v>201165</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" t="str">
+        <f>IFERROR(VLOOKUP(B104,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6778,8 +7201,12 @@
       <c r="E105">
         <v>203433</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" t="str">
+        <f>IFERROR(VLOOKUP(B105,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6795,8 +7222,12 @@
       <c r="E106">
         <v>210565</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" t="str">
+        <f>IFERROR(VLOOKUP(B106,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6812,8 +7243,12 @@
       <c r="E107">
         <v>198397</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" t="str">
+        <f>IFERROR(VLOOKUP(B107,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6829,8 +7264,12 @@
       <c r="E108">
         <v>196069</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" t="str">
+        <f>IFERROR(VLOOKUP(B108,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6846,8 +7285,12 @@
       <c r="E109">
         <v>197899</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" t="str">
+        <f>IFERROR(VLOOKUP(B109,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6863,8 +7306,12 @@
       <c r="E110">
         <v>193365</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" t="str">
+        <f>IFERROR(VLOOKUP(B110,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6880,8 +7327,12 @@
       <c r="E111">
         <v>200564</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" t="str">
+        <f>IFERROR(VLOOKUP(B111,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6897,8 +7348,12 @@
       <c r="E112">
         <v>189992</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" t="str">
+        <f>IFERROR(VLOOKUP(B112,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6914,8 +7369,12 @@
       <c r="E113">
         <v>195976</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" t="str">
+        <f>IFERROR(VLOOKUP(B113,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6931,8 +7390,12 @@
       <c r="E114">
         <v>191719</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" t="str">
+        <f>IFERROR(VLOOKUP(B114,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6948,8 +7411,12 @@
       <c r="E115">
         <v>197899</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" t="str">
+        <f>IFERROR(VLOOKUP(B115,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6965,8 +7432,12 @@
       <c r="E116">
         <v>205764</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" t="str">
+        <f>IFERROR(VLOOKUP(B116,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6982,8 +7453,12 @@
       <c r="E117">
         <v>189885</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" t="str">
+        <f>IFERROR(VLOOKUP(B117,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6999,8 +7474,12 @@
       <c r="E118">
         <v>190695</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" t="str">
+        <f>IFERROR(VLOOKUP(B118,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7016,8 +7495,12 @@
       <c r="E119">
         <v>193524</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" t="str">
+        <f>IFERROR(VLOOKUP(B119,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7033,8 +7516,12 @@
       <c r="E120">
         <v>199110</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="str">
+        <f>IFERROR(VLOOKUP(B120,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7050,8 +7537,12 @@
       <c r="E121">
         <v>199311</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" t="str">
+        <f>IFERROR(VLOOKUP(B121,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7067,8 +7558,12 @@
       <c r="E122">
         <v>195844</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" t="str">
+        <f>IFERROR(VLOOKUP(B122,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7084,8 +7579,12 @@
       <c r="E123">
         <v>188040</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" t="str">
+        <f>IFERROR(VLOOKUP(B123,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7101,8 +7600,12 @@
       <c r="E124">
         <v>195111</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" t="str">
+        <f>IFERROR(VLOOKUP(B124,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7118,8 +7621,12 @@
       <c r="E125">
         <v>186440</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" t="str">
+        <f>IFERROR(VLOOKUP(B125,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7135,8 +7642,12 @@
       <c r="E126">
         <v>180105</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" t="str">
+        <f>IFERROR(VLOOKUP(B126,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7152,8 +7663,12 @@
       <c r="E127">
         <v>181376</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" t="str">
+        <f>IFERROR(VLOOKUP(B127,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7169,8 +7684,12 @@
       <c r="E128">
         <v>175396</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" t="str">
+        <f>IFERROR(VLOOKUP(B128,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7186,8 +7705,12 @@
       <c r="E129">
         <v>173372</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" t="str">
+        <f>IFERROR(VLOOKUP(B129,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7203,8 +7726,12 @@
       <c r="E130">
         <v>178874</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" t="str">
+        <f>IFERROR(VLOOKUP(B130,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7220,8 +7747,12 @@
       <c r="E131">
         <v>181045</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" t="str">
+        <f>IFERROR(VLOOKUP(B131,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7237,8 +7768,12 @@
       <c r="E132">
         <v>175023</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" t="str">
+        <f>IFERROR(VLOOKUP(B132,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7254,8 +7789,12 @@
       <c r="E133">
         <v>180719</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" t="str">
+        <f>IFERROR(VLOOKUP(B133,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7271,8 +7810,12 @@
       <c r="E134">
         <v>176320</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" t="str">
+        <f>IFERROR(VLOOKUP(B134,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7288,8 +7831,12 @@
       <c r="E135">
         <v>164603</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" t="str">
+        <f>IFERROR(VLOOKUP(B135,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7305,8 +7852,12 @@
       <c r="E136">
         <v>178042</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" t="str">
+        <f>IFERROR(VLOOKUP(B136,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7322,8 +7873,12 @@
       <c r="E137">
         <v>165521</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" t="str">
+        <f>IFERROR(VLOOKUP(B137,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7339,8 +7894,12 @@
       <c r="E138">
         <v>167674</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" t="str">
+        <f>IFERROR(VLOOKUP(B138,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7356,8 +7915,12 @@
       <c r="E139">
         <v>161719</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" t="str">
+        <f>IFERROR(VLOOKUP(B139,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7373,8 +7936,12 @@
       <c r="E140">
         <v>167086</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" t="str">
+        <f>IFERROR(VLOOKUP(B140,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7390,8 +7957,12 @@
       <c r="E141">
         <v>170883</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" t="str">
+        <f>IFERROR(VLOOKUP(B141,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7407,8 +7978,12 @@
       <c r="E142">
         <v>165269</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" t="str">
+        <f>IFERROR(VLOOKUP(B142,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7424,8 +7999,12 @@
       <c r="E143">
         <v>154305</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" t="str">
+        <f>IFERROR(VLOOKUP(B143,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7441,8 +8020,12 @@
       <c r="E144">
         <v>167815</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" t="str">
+        <f>IFERROR(VLOOKUP(B144,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7458,8 +8041,12 @@
       <c r="E145">
         <v>161791</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" t="str">
+        <f>IFERROR(VLOOKUP(B145,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7475,8 +8062,12 @@
       <c r="E146">
         <v>153888</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" t="str">
+        <f>IFERROR(VLOOKUP(B146,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7492,8 +8083,12 @@
       <c r="E147">
         <v>154065</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" t="str">
+        <f>IFERROR(VLOOKUP(B147,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7509,8 +8104,12 @@
       <c r="E148">
         <v>163924</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" t="str">
+        <f>IFERROR(VLOOKUP(B148,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7526,8 +8125,12 @@
       <c r="E149">
         <v>173514</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" t="str">
+        <f>IFERROR(VLOOKUP(B149,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7543,8 +8146,12 @@
       <c r="E150">
         <v>153015</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" t="str">
+        <f>IFERROR(VLOOKUP(B150,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7560,8 +8167,12 @@
       <c r="E151">
         <v>159498</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" t="str">
+        <f>IFERROR(VLOOKUP(B151,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7577,8 +8188,12 @@
       <c r="E152">
         <v>154019</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" t="str">
+        <f>IFERROR(VLOOKUP(B152,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7594,8 +8209,12 @@
       <c r="E153">
         <v>154637</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" t="str">
+        <f>IFERROR(VLOOKUP(B153,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7611,8 +8230,12 @@
       <c r="E154">
         <v>152374</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" t="str">
+        <f>IFERROR(VLOOKUP(B154,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7628,8 +8251,12 @@
       <c r="E155">
         <v>156185</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" t="str">
+        <f>IFERROR(VLOOKUP(B155,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7645,8 +8272,12 @@
       <c r="E156">
         <v>131117</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" t="str">
+        <f>IFERROR(VLOOKUP(B156,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7662,8 +8293,12 @@
       <c r="E157">
         <v>143986</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" t="str">
+        <f>IFERROR(VLOOKUP(B157,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7679,8 +8314,12 @@
       <c r="E158">
         <v>156633</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" t="str">
+        <f>IFERROR(VLOOKUP(B158,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7696,8 +8335,12 @@
       <c r="E159">
         <v>135234</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" t="str">
+        <f>IFERROR(VLOOKUP(B159,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7713,8 +8356,12 @@
       <c r="E160">
         <v>152750</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" t="str">
+        <f>IFERROR(VLOOKUP(B160,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7730,8 +8377,12 @@
       <c r="E161">
         <v>144186</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" t="str">
+        <f>IFERROR(VLOOKUP(B161,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7747,8 +8398,12 @@
       <c r="E162">
         <v>150441</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" t="str">
+        <f>IFERROR(VLOOKUP(B162,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7764,8 +8419,12 @@
       <c r="E163">
         <v>116989</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" t="str">
+        <f>IFERROR(VLOOKUP(B163,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7781,8 +8440,12 @@
       <c r="E164">
         <v>153060</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" t="str">
+        <f>IFERROR(VLOOKUP(B164,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7798,8 +8461,12 @@
       <c r="E165">
         <v>149043</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" t="str">
+        <f>IFERROR(VLOOKUP(B165,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7815,8 +8482,12 @@
       <c r="E166">
         <v>91351</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" t="str">
+        <f>IFERROR(VLOOKUP(B166,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7832,8 +8503,12 @@
       <c r="E167">
         <v>139966</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" t="str">
+        <f>IFERROR(VLOOKUP(B167,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7849,8 +8524,12 @@
       <c r="E168">
         <v>149058</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" t="str">
+        <f>IFERROR(VLOOKUP(B168,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7866,8 +8545,12 @@
       <c r="E169">
         <v>142980</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" t="str">
+        <f>IFERROR(VLOOKUP(B169,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7883,8 +8566,12 @@
       <c r="E170">
         <v>140081</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" t="str">
+        <f>IFERROR(VLOOKUP(B170,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7900,8 +8587,12 @@
       <c r="E171">
         <v>143911</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" t="str">
+        <f>IFERROR(VLOOKUP(B171,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7917,8 +8608,12 @@
       <c r="E172">
         <v>145786</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" t="str">
+        <f>IFERROR(VLOOKUP(B172,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7934,8 +8629,12 @@
       <c r="E173">
         <v>140768</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" t="str">
+        <f>IFERROR(VLOOKUP(B173,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7951,8 +8650,12 @@
       <c r="E174">
         <v>132929</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" t="str">
+        <f>IFERROR(VLOOKUP(B174,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7968,8 +8671,12 @@
       <c r="E175">
         <v>145438</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" t="str">
+        <f>IFERROR(VLOOKUP(B175,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7985,8 +8692,12 @@
       <c r="E176">
         <v>152871</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" t="str">
+        <f>IFERROR(VLOOKUP(B176,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8002,8 +8713,12 @@
       <c r="E177">
         <v>147433</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" t="str">
+        <f>IFERROR(VLOOKUP(B177,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8019,8 +8734,12 @@
       <c r="E178">
         <v>146199</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" t="str">
+        <f>IFERROR(VLOOKUP(B178,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8036,8 +8755,12 @@
       <c r="E179">
         <v>144229</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" t="str">
+        <f>IFERROR(VLOOKUP(B179,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8053,8 +8776,12 @@
       <c r="E180">
         <v>141853</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" t="str">
+        <f>IFERROR(VLOOKUP(B180,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8070,8 +8797,12 @@
       <c r="E181">
         <v>136286</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" t="str">
+        <f>IFERROR(VLOOKUP(B181,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8087,8 +8818,12 @@
       <c r="E182">
         <v>139824</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" t="str">
+        <f>IFERROR(VLOOKUP(B182,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8104,8 +8839,12 @@
       <c r="E183">
         <v>145170</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" t="str">
+        <f>IFERROR(VLOOKUP(B183,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8121,8 +8860,12 @@
       <c r="E184">
         <v>137122</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" t="str">
+        <f>IFERROR(VLOOKUP(B184,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8138,8 +8881,12 @@
       <c r="E185">
         <v>136416</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" t="str">
+        <f>IFERROR(VLOOKUP(B185,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8155,8 +8902,12 @@
       <c r="E186">
         <v>135161</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" t="str">
+        <f>IFERROR(VLOOKUP(B186,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8172,8 +8923,12 @@
       <c r="E187">
         <v>127921</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" t="str">
+        <f>IFERROR(VLOOKUP(B187,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8189,8 +8944,12 @@
       <c r="E188">
         <v>141527</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" t="str">
+        <f>IFERROR(VLOOKUP(B188,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8206,8 +8965,12 @@
       <c r="E189">
         <v>129877</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" t="str">
+        <f>IFERROR(VLOOKUP(B189,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8223,8 +8986,12 @@
       <c r="E190">
         <v>122363</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" t="str">
+        <f>IFERROR(VLOOKUP(B190,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8240,8 +9007,12 @@
       <c r="E191">
         <v>122041</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" t="str">
+        <f>IFERROR(VLOOKUP(B191,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8257,8 +9028,12 @@
       <c r="E192">
         <v>137436</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" t="str">
+        <f>IFERROR(VLOOKUP(B192,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8274,8 +9049,12 @@
       <c r="E193">
         <v>129480</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" t="str">
+        <f>IFERROR(VLOOKUP(B193,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8291,8 +9070,12 @@
       <c r="E194">
         <v>134056</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" t="str">
+        <f>IFERROR(VLOOKUP(B194,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8308,8 +9091,12 @@
       <c r="E195">
         <v>125872</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" t="str">
+        <f>IFERROR(VLOOKUP(B195,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8325,8 +9112,12 @@
       <c r="E196">
         <v>129272</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" t="str">
+        <f>IFERROR(VLOOKUP(B196,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8342,8 +9133,12 @@
       <c r="E197">
         <v>118772</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" t="str">
+        <f>IFERROR(VLOOKUP(B197,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8359,8 +9154,12 @@
       <c r="E198">
         <v>119097</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" t="str">
+        <f>IFERROR(VLOOKUP(B198,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8376,8 +9175,12 @@
       <c r="E199">
         <v>111147</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" t="str">
+        <f>IFERROR(VLOOKUP(B199,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8393,8 +9196,12 @@
       <c r="E200">
         <v>120083</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200" t="str">
+        <f>IFERROR(VLOOKUP(B200,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8410,8 +9217,12 @@
       <c r="E201">
         <v>124805</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201" t="str">
+        <f>IFERROR(VLOOKUP(B201,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8427,8 +9238,12 @@
       <c r="E202">
         <v>129699</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" t="str">
+        <f>IFERROR(VLOOKUP(B202,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8444,8 +9259,12 @@
       <c r="E203">
         <v>113383</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203" t="str">
+        <f>IFERROR(VLOOKUP(B203,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8461,8 +9280,12 @@
       <c r="E204">
         <v>126326</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" t="str">
+        <f>IFERROR(VLOOKUP(B204,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8478,8 +9301,12 @@
       <c r="E205">
         <v>129779</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205" t="str">
+        <f>IFERROR(VLOOKUP(B205,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8495,8 +9322,12 @@
       <c r="E206">
         <v>118788</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206" t="str">
+        <f>IFERROR(VLOOKUP(B206,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8512,8 +9343,12 @@
       <c r="E207">
         <v>124354</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207" t="str">
+        <f>IFERROR(VLOOKUP(B207,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8529,8 +9364,12 @@
       <c r="E208">
         <v>124442</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" t="str">
+        <f>IFERROR(VLOOKUP(B208,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8546,8 +9385,12 @@
       <c r="E209">
         <v>121096</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" t="str">
+        <f>IFERROR(VLOOKUP(B209,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8563,8 +9406,12 @@
       <c r="E210">
         <v>126683</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" t="str">
+        <f>IFERROR(VLOOKUP(B210,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8580,8 +9427,12 @@
       <c r="E211">
         <v>124969</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" t="str">
+        <f>IFERROR(VLOOKUP(B211,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8597,8 +9448,12 @@
       <c r="E212">
         <v>122643</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" t="str">
+        <f>IFERROR(VLOOKUP(B212,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8614,8 +9469,12 @@
       <c r="E213">
         <v>122067</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" t="str">
+        <f>IFERROR(VLOOKUP(B213,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8631,8 +9490,12 @@
       <c r="E214">
         <v>117517</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" t="str">
+        <f>IFERROR(VLOOKUP(B214,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8648,8 +9511,12 @@
       <c r="E215">
         <v>120623</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" t="str">
+        <f>IFERROR(VLOOKUP(B215,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8665,8 +9532,12 @@
       <c r="E216">
         <v>127473</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" t="str">
+        <f>IFERROR(VLOOKUP(B216,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8682,8 +9553,12 @@
       <c r="E217">
         <v>92411</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" t="str">
+        <f>IFERROR(VLOOKUP(B217,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8699,8 +9574,12 @@
       <c r="E218">
         <v>124237</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218" t="str">
+        <f>IFERROR(VLOOKUP(B218,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8716,8 +9595,12 @@
       <c r="E219">
         <v>116468</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" t="str">
+        <f>IFERROR(VLOOKUP(B219,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8733,8 +9616,12 @@
       <c r="E220">
         <v>108755</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" t="str">
+        <f>IFERROR(VLOOKUP(B220,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8750,8 +9637,12 @@
       <c r="E221">
         <v>124775</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" t="str">
+        <f>IFERROR(VLOOKUP(B221,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8767,8 +9658,12 @@
       <c r="E222">
         <v>115452</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222" t="str">
+        <f>IFERROR(VLOOKUP(B222,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8784,8 +9679,12 @@
       <c r="E223">
         <v>115903</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223" t="str">
+        <f>IFERROR(VLOOKUP(B223,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8801,8 +9700,12 @@
       <c r="E224">
         <v>117063</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" t="str">
+        <f>IFERROR(VLOOKUP(B224,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8818,8 +9721,12 @@
       <c r="E225">
         <v>115942</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" t="str">
+        <f>IFERROR(VLOOKUP(B225,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8835,8 +9742,12 @@
       <c r="E226">
         <v>112580</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" t="str">
+        <f>IFERROR(VLOOKUP(B226,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8852,8 +9763,12 @@
       <c r="E227">
         <v>110925</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" t="str">
+        <f>IFERROR(VLOOKUP(B227,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -8869,8 +9784,12 @@
       <c r="E228">
         <v>118032</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" t="str">
+        <f>IFERROR(VLOOKUP(B228,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8886,8 +9805,12 @@
       <c r="E229">
         <v>117429</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" t="str">
+        <f>IFERROR(VLOOKUP(B229,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8903,8 +9826,12 @@
       <c r="E230">
         <v>108500</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" t="str">
+        <f>IFERROR(VLOOKUP(B230,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8920,8 +9847,12 @@
       <c r="E231">
         <v>99940</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" t="str">
+        <f>IFERROR(VLOOKUP(B231,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8937,8 +9868,12 @@
       <c r="E232">
         <v>105549</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" t="str">
+        <f>IFERROR(VLOOKUP(B232,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8954,8 +9889,12 @@
       <c r="E233">
         <v>118296</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" t="str">
+        <f>IFERROR(VLOOKUP(B233,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8971,8 +9910,12 @@
       <c r="E234">
         <v>116830</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234" t="str">
+        <f>IFERROR(VLOOKUP(B234,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8988,8 +9931,12 @@
       <c r="E235">
         <v>113934</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235" t="str">
+        <f>IFERROR(VLOOKUP(B235,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9005,8 +9952,12 @@
       <c r="E236">
         <v>113475</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" t="str">
+        <f>IFERROR(VLOOKUP(B236,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9022,8 +9973,12 @@
       <c r="E237">
         <v>116250</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237" t="str">
+        <f>IFERROR(VLOOKUP(B237,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9039,8 +9994,12 @@
       <c r="E238">
         <v>99887</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238" t="str">
+        <f>IFERROR(VLOOKUP(B238,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9056,8 +10015,12 @@
       <c r="E239">
         <v>106476</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239" t="str">
+        <f>IFERROR(VLOOKUP(B239,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9073,8 +10036,12 @@
       <c r="E240">
         <v>106433</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" t="str">
+        <f>IFERROR(VLOOKUP(B240,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9090,8 +10057,12 @@
       <c r="E241">
         <v>112488</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" t="str">
+        <f>IFERROR(VLOOKUP(B241,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9107,8 +10078,12 @@
       <c r="E242">
         <v>115007</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242" t="str">
+        <f>IFERROR(VLOOKUP(B242,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9124,8 +10099,12 @@
       <c r="E243">
         <v>114297</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243" t="str">
+        <f>IFERROR(VLOOKUP(B243,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9141,8 +10120,12 @@
       <c r="E244">
         <v>111772</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" t="str">
+        <f>IFERROR(VLOOKUP(B244,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9158,8 +10141,12 @@
       <c r="E245">
         <v>105328</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" t="str">
+        <f>IFERROR(VLOOKUP(B245,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9175,8 +10162,12 @@
       <c r="E246">
         <v>109960</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246" t="str">
+        <f>IFERROR(VLOOKUP(B246,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9192,8 +10183,12 @@
       <c r="E247">
         <v>107167</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247" t="str">
+        <f>IFERROR(VLOOKUP(B247,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9209,8 +10204,12 @@
       <c r="E248">
         <v>106114</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" t="str">
+        <f>IFERROR(VLOOKUP(B248,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9226,8 +10225,12 @@
       <c r="E249">
         <v>107685</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" t="str">
+        <f>IFERROR(VLOOKUP(B249,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9243,8 +10246,12 @@
       <c r="E250">
         <v>105321</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250" t="str">
+        <f>IFERROR(VLOOKUP(B250,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9260,8 +10267,12 @@
       <c r="E251">
         <v>106769</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251" t="str">
+        <f>IFERROR(VLOOKUP(B251,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9277,8 +10288,12 @@
       <c r="E252">
         <v>108188</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" t="str">
+        <f>IFERROR(VLOOKUP(B252,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9294,8 +10309,12 @@
       <c r="E253">
         <v>100097</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" t="str">
+        <f>IFERROR(VLOOKUP(B253,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9311,8 +10330,12 @@
       <c r="E254">
         <v>103712</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254" t="str">
+        <f>IFERROR(VLOOKUP(B254,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9328,8 +10351,12 @@
       <c r="E255">
         <v>109673</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255" t="str">
+        <f>IFERROR(VLOOKUP(B255,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9345,8 +10372,12 @@
       <c r="E256">
         <v>99223</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256" t="str">
+        <f>IFERROR(VLOOKUP(B256,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9362,8 +10393,12 @@
       <c r="E257">
         <v>106519</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257" t="str">
+        <f>IFERROR(VLOOKUP(B257,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9379,8 +10414,12 @@
       <c r="E258">
         <v>105594</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258" t="str">
+        <f>IFERROR(VLOOKUP(B258,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -9396,8 +10435,12 @@
       <c r="E259">
         <v>102372</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259" t="str">
+        <f>IFERROR(VLOOKUP(B259,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -9413,8 +10456,12 @@
       <c r="E260">
         <v>105162</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260" t="str">
+        <f>IFERROR(VLOOKUP(B260,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -9430,8 +10477,12 @@
       <c r="E261">
         <v>104371</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261" t="str">
+        <f>IFERROR(VLOOKUP(B261,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -9447,8 +10498,12 @@
       <c r="E262">
         <v>104170</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262" t="str">
+        <f>IFERROR(VLOOKUP(B262,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -9464,8 +10519,12 @@
       <c r="E263">
         <v>109565</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263" t="str">
+        <f>IFERROR(VLOOKUP(B263,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -9481,8 +10540,12 @@
       <c r="E264">
         <v>103466</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264" t="str">
+        <f>IFERROR(VLOOKUP(B264,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -9498,8 +10561,12 @@
       <c r="E265">
         <v>100377</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265" t="str">
+        <f>IFERROR(VLOOKUP(B265,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -9515,8 +10582,12 @@
       <c r="E266">
         <v>103701</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266" t="str">
+        <f>IFERROR(VLOOKUP(B266,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -9532,8 +10603,12 @@
       <c r="E267">
         <v>106433</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267" t="str">
+        <f>IFERROR(VLOOKUP(B267,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -9549,8 +10624,12 @@
       <c r="E268">
         <v>106595</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268" t="str">
+        <f>IFERROR(VLOOKUP(B268,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -9566,8 +10645,12 @@
       <c r="E269">
         <v>91252</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269" t="str">
+        <f>IFERROR(VLOOKUP(B269,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -9583,8 +10666,12 @@
       <c r="E270">
         <v>110366</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270" t="str">
+        <f>IFERROR(VLOOKUP(B270,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -9600,8 +10687,12 @@
       <c r="E271">
         <v>106098</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271" t="str">
+        <f>IFERROR(VLOOKUP(B271,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -9617,8 +10708,12 @@
       <c r="E272">
         <v>97471</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" t="str">
+        <f>IFERROR(VLOOKUP(B272,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -9634,8 +10729,12 @@
       <c r="E273">
         <v>103019</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" t="str">
+        <f>IFERROR(VLOOKUP(B273,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9651,8 +10750,12 @@
       <c r="E274">
         <v>93857</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274" t="str">
+        <f>IFERROR(VLOOKUP(B274,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9668,8 +10771,12 @@
       <c r="E275">
         <v>103190</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275" t="str">
+        <f>IFERROR(VLOOKUP(B275,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -9685,8 +10792,12 @@
       <c r="E276">
         <v>99845</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" t="str">
+        <f>IFERROR(VLOOKUP(B276,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -9702,8 +10813,12 @@
       <c r="E277">
         <v>97385</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" t="str">
+        <f>IFERROR(VLOOKUP(B277,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -9719,8 +10834,12 @@
       <c r="E278">
         <v>105549</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278" t="str">
+        <f>IFERROR(VLOOKUP(B278,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9736,8 +10855,12 @@
       <c r="E279">
         <v>99919</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279" t="str">
+        <f>IFERROR(VLOOKUP(B279,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -9753,8 +10876,12 @@
       <c r="E280">
         <v>98850</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" t="str">
+        <f>IFERROR(VLOOKUP(B280,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -9770,8 +10897,12 @@
       <c r="E281">
         <v>101123</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281" t="str">
+        <f>IFERROR(VLOOKUP(B281,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9787,8 +10918,12 @@
       <c r="E282">
         <v>93853</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282" t="str">
+        <f>IFERROR(VLOOKUP(B282,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9804,8 +10939,12 @@
       <c r="E283">
         <v>103340</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283" t="str">
+        <f>IFERROR(VLOOKUP(B283,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -9821,8 +10960,12 @@
       <c r="E284">
         <v>104057</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284" t="str">
+        <f>IFERROR(VLOOKUP(B284,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -9838,8 +10981,12 @@
       <c r="E285">
         <v>99553</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285" t="str">
+        <f>IFERROR(VLOOKUP(B285,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -9855,8 +11002,12 @@
       <c r="E286">
         <v>104553</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286" t="str">
+        <f>IFERROR(VLOOKUP(B286,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9872,8 +11023,12 @@
       <c r="E287">
         <v>97422</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287" t="str">
+        <f>IFERROR(VLOOKUP(B287,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -9889,8 +11044,12 @@
       <c r="E288">
         <v>95631</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288" t="str">
+        <f>IFERROR(VLOOKUP(B288,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9906,8 +11065,12 @@
       <c r="E289">
         <v>95290</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289" t="str">
+        <f>IFERROR(VLOOKUP(B289,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -9923,8 +11086,12 @@
       <c r="E290">
         <v>96900</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290" t="str">
+        <f>IFERROR(VLOOKUP(B290,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -9940,8 +11107,12 @@
       <c r="E291">
         <v>99478</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291" t="str">
+        <f>IFERROR(VLOOKUP(B291,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -9957,8 +11128,12 @@
       <c r="E292">
         <v>97207</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292" t="str">
+        <f>IFERROR(VLOOKUP(B292,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -9974,8 +11149,12 @@
       <c r="E293">
         <v>99171</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293" t="str">
+        <f>IFERROR(VLOOKUP(B293,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -9991,8 +11170,12 @@
       <c r="E294">
         <v>99967</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294" t="str">
+        <f>IFERROR(VLOOKUP(B294,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10008,8 +11191,12 @@
       <c r="E295">
         <v>99685</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295" t="str">
+        <f>IFERROR(VLOOKUP(B295,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10025,8 +11212,12 @@
       <c r="E296">
         <v>91611</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296" t="str">
+        <f>IFERROR(VLOOKUP(B296,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10042,8 +11233,12 @@
       <c r="E297">
         <v>99585</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297" t="str">
+        <f>IFERROR(VLOOKUP(B297,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10059,8 +11254,12 @@
       <c r="E298">
         <v>97618</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298" t="str">
+        <f>IFERROR(VLOOKUP(B298,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10076,8 +11275,12 @@
       <c r="E299">
         <v>101168</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299" t="str">
+        <f>IFERROR(VLOOKUP(B299,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10093,8 +11296,12 @@
       <c r="E300">
         <v>93834</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300" t="str">
+        <f>IFERROR(VLOOKUP(B300,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -10110,8 +11317,12 @@
       <c r="E301">
         <v>92889</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301" t="str">
+        <f>IFERROR(VLOOKUP(B301,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -10127,8 +11338,12 @@
       <c r="E302">
         <v>91992</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302" t="str">
+        <f>IFERROR(VLOOKUP(B302,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10144,8 +11359,12 @@
       <c r="E303">
         <v>93200</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F303" t="str">
+        <f>IFERROR(VLOOKUP(B303,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10161,8 +11380,12 @@
       <c r="E304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304" t="str">
+        <f>IFERROR(VLOOKUP(B304,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>New_Market</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10177,6 +11400,10 @@
       </c>
       <c r="E305">
         <v>90927</v>
+      </c>
+      <c r="F305" t="str">
+        <f>IFERROR(VLOOKUP(B305,Sheet1!$B$2:$E$151,4,FALSE), "New_Market")</f>
+        <v>Old</v>
       </c>
     </row>
   </sheetData>
